--- a/SupplementalFig8/organized_subvariants_v25.xlsx
+++ b/SupplementalFig8/organized_subvariants_v25.xlsx
@@ -470,6 +470,9 @@
     <t xml:space="preserve">B.1.1.529+L707F</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.1.529+L708V</t>
+  </si>
+  <si>
     <t xml:space="preserve">B.1.1.529+N705R</t>
   </si>
   <si>
@@ -737,9 +740,6 @@
     <t xml:space="preserve">B.1.1.529 (BA.2/BA.3)+I472I</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.529 (BA.2/BA.3)+I606I</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.1.529 (BA.2/BA.3)+I692I</t>
   </si>
   <si>
@@ -893,9 +893,6 @@
     <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A484V</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A576V+T577N+T577N+A672G</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A672G</t>
   </si>
   <si>
@@ -936,6 +933,9 @@
   </si>
   <si>
     <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A694V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+A702Stop</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.1.529 (BA.4/BA.5)+E471Q+Y489Y</t>
@@ -1960,7 +1960,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>8784</v>
+        <v>8783</v>
       </c>
     </row>
     <row r="34">
@@ -2081,7 +2081,7 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -3203,7 +3203,7 @@
         <v>153</v>
       </c>
       <c r="C146" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3214,7 +3214,7 @@
         <v>154</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -3225,7 +3225,7 @@
         <v>155</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -3247,7 +3247,7 @@
         <v>157</v>
       </c>
       <c r="C150" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3258,7 +3258,7 @@
         <v>158</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152">
@@ -3280,7 +3280,7 @@
         <v>160</v>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3291,7 +3291,7 @@
         <v>161</v>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -3302,7 +3302,7 @@
         <v>162</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -3313,7 +3313,7 @@
         <v>163</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3324,7 +3324,7 @@
         <v>164</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -3357,7 +3357,7 @@
         <v>167</v>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3368,7 +3368,7 @@
         <v>168</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3379,7 +3379,7 @@
         <v>169</v>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3390,7 +3390,7 @@
         <v>170</v>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
@@ -3401,7 +3401,7 @@
         <v>171</v>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -3412,7 +3412,7 @@
         <v>172</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166">
@@ -3423,7 +3423,7 @@
         <v>173</v>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3434,7 +3434,7 @@
         <v>174</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
@@ -3445,7 +3445,7 @@
         <v>175</v>
       </c>
       <c r="C168" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3456,7 +3456,7 @@
         <v>176</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -3467,7 +3467,7 @@
         <v>177</v>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3478,7 +3478,7 @@
         <v>178</v>
       </c>
       <c r="C171" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -3489,7 +3489,7 @@
         <v>179</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
@@ -3522,7 +3522,7 @@
         <v>182</v>
       </c>
       <c r="C175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -3533,7 +3533,7 @@
         <v>183</v>
       </c>
       <c r="C176" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177">
@@ -3544,7 +3544,7 @@
         <v>184</v>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
@@ -3555,7 +3555,7 @@
         <v>185</v>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -3566,7 +3566,7 @@
         <v>186</v>
       </c>
       <c r="C179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -3574,18 +3574,18 @@
         <v>120</v>
       </c>
       <c r="B180" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C181" t="n">
         <v>46</v>
@@ -3593,10 +3593,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C182" t="n">
         <v>20</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -3637,10 +3637,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C187" t="n">
         <v>54</v>
@@ -3659,10 +3659,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C191" t="n">
         <v>61</v>
@@ -3703,10 +3703,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -3714,10 +3714,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -3725,10 +3725,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C194" t="n">
         <v>6</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B195" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C195" t="n">
         <v>4</v>
@@ -3747,10 +3747,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B196" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B197" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C197" t="n">
         <v>2</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3780,21 +3780,21 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C199" t="n">
-        <v>8298</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C200" t="n">
         <v>13</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C202" t="n">
         <v>4</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B203" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C203" t="n">
         <v>6</v>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3846,10 +3846,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C206" t="n">
         <v>4</v>
@@ -3868,10 +3868,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3879,10 +3879,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C208" t="n">
         <v>5</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C209" t="n">
         <v>7</v>
@@ -3901,10 +3901,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C210" t="n">
         <v>2</v>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C211" t="n">
         <v>6</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B212" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B213" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B215" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B216" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C216" t="n">
         <v>2</v>
@@ -3978,10 +3978,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -3989,10 +3989,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B218" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -4011,10 +4011,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B220" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B221" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -4033,10 +4033,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B222" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B223" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B224" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B226" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -4088,10 +4088,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B228" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B229" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C229" t="n">
         <v>3</v>
@@ -4121,10 +4121,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B230" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C230" t="n">
         <v>3</v>
@@ -4132,10 +4132,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B231" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C231" t="n">
         <v>2</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -4154,32 +4154,32 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B233" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B234" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C234" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B235" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B236" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B237" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B238" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -4220,10 +4220,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B239" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B240" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B241" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -4253,32 +4253,32 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B242" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B243" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C243" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B244" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C244" t="n">
         <v>2</v>
@@ -4286,21 +4286,21 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B245" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B246" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B247" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -4319,32 +4319,32 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B248" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B249" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C249" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B250" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B251" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -4363,76 +4363,76 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B252" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B253" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B254" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B255" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C255" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B256" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C256" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B257" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -4440,32 +4440,32 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C260" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -4484,32 +4484,32 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B263" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B265" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B266" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B268" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B269" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -4561,43 +4561,43 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B270" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B271" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B272" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B273" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -4605,24 +4605,24 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C275" t="n">
-        <v>8</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="276">
@@ -4630,10 +4630,10 @@
         <v>284</v>
       </c>
       <c r="B276" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -4641,10 +4641,10 @@
         <v>284</v>
       </c>
       <c r="B277" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C277" t="n">
-        <v>6921</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -4652,10 +4652,10 @@
         <v>284</v>
       </c>
       <c r="B278" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -4663,10 +4663,10 @@
         <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -4674,7 +4674,7 @@
         <v>284</v>
       </c>
       <c r="B280" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4685,10 +4685,10 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -4696,7 +4696,7 @@
         <v>284</v>
       </c>
       <c r="B282" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -4707,10 +4707,10 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284">
@@ -4718,7 +4718,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4729,7 +4729,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -4740,10 +4740,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C286" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -4751,10 +4751,10 @@
         <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -4762,10 +4762,10 @@
         <v>284</v>
       </c>
       <c r="B288" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -4773,10 +4773,10 @@
         <v>284</v>
       </c>
       <c r="B289" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -4784,10 +4784,10 @@
         <v>284</v>
       </c>
       <c r="B290" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -4795,10 +4795,10 @@
         <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292">
@@ -4806,10 +4806,10 @@
         <v>284</v>
       </c>
       <c r="B292" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293">
@@ -4817,7 +4817,7 @@
         <v>284</v>
       </c>
       <c r="B293" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4828,10 +4828,10 @@
         <v>284</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C294" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="295">
@@ -4839,10 +4839,10 @@
         <v>284</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C295" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -4850,10 +4850,10 @@
         <v>284</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -4861,10 +4861,10 @@
         <v>284</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C297" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -4872,10 +4872,10 @@
         <v>284</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -4883,10 +4883,10 @@
         <v>284</v>
       </c>
       <c r="B299" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -4894,10 +4894,10 @@
         <v>284</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -4905,10 +4905,10 @@
         <v>284</v>
       </c>
       <c r="B301" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302">
@@ -4916,10 +4916,10 @@
         <v>284</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -4927,10 +4927,10 @@
         <v>284</v>
       </c>
       <c r="B303" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C303" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -4938,10 +4938,10 @@
         <v>284</v>
       </c>
       <c r="B304" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -4949,7 +4949,7 @@
         <v>284</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>284</v>
       </c>
       <c r="B306" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -4971,10 +4971,10 @@
         <v>284</v>
       </c>
       <c r="B307" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308">
@@ -4982,10 +4982,10 @@
         <v>284</v>
       </c>
       <c r="B308" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -4993,10 +4993,10 @@
         <v>284</v>
       </c>
       <c r="B309" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -5004,10 +5004,10 @@
         <v>284</v>
       </c>
       <c r="B310" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -5015,7 +5015,7 @@
         <v>284</v>
       </c>
       <c r="B311" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -5026,10 +5026,10 @@
         <v>284</v>
       </c>
       <c r="B312" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -5037,7 +5037,7 @@
         <v>284</v>
       </c>
       <c r="B313" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -5048,7 +5048,7 @@
         <v>284</v>
       </c>
       <c r="B314" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C314" t="n">
         <v>3</v>
@@ -5059,7 +5059,7 @@
         <v>284</v>
       </c>
       <c r="B315" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>284</v>
       </c>
       <c r="B316" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C316" t="n">
         <v>3</v>
@@ -5081,10 +5081,10 @@
         <v>284</v>
       </c>
       <c r="B317" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -5092,10 +5092,10 @@
         <v>284</v>
       </c>
       <c r="B318" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -5103,10 +5103,10 @@
         <v>284</v>
       </c>
       <c r="B319" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320">
@@ -5114,7 +5114,7 @@
         <v>284</v>
       </c>
       <c r="B320" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -5125,10 +5125,10 @@
         <v>284</v>
       </c>
       <c r="B321" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C321" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322">
@@ -5136,10 +5136,10 @@
         <v>284</v>
       </c>
       <c r="B322" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323">
@@ -5147,10 +5147,10 @@
         <v>284</v>
       </c>
       <c r="B323" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C323" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324">
@@ -5158,10 +5158,10 @@
         <v>284</v>
       </c>
       <c r="B324" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C324" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -5169,10 +5169,10 @@
         <v>284</v>
       </c>
       <c r="B325" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5180,10 +5180,10 @@
         <v>284</v>
       </c>
       <c r="B326" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -5191,10 +5191,10 @@
         <v>284</v>
       </c>
       <c r="B327" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328">
@@ -5202,7 +5202,7 @@
         <v>284</v>
       </c>
       <c r="B328" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -5213,10 +5213,10 @@
         <v>284</v>
       </c>
       <c r="B329" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330">
@@ -5224,10 +5224,10 @@
         <v>284</v>
       </c>
       <c r="B330" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -5235,10 +5235,10 @@
         <v>284</v>
       </c>
       <c r="B331" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C331" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -5246,10 +5246,10 @@
         <v>284</v>
       </c>
       <c r="B332" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -5257,7 +5257,7 @@
         <v>284</v>
       </c>
       <c r="B333" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -5268,7 +5268,7 @@
         <v>284</v>
       </c>
       <c r="B334" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -5279,10 +5279,10 @@
         <v>284</v>
       </c>
       <c r="B335" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336">
@@ -5290,10 +5290,10 @@
         <v>284</v>
       </c>
       <c r="B336" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337">
@@ -5301,10 +5301,10 @@
         <v>284</v>
       </c>
       <c r="B337" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C337" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="338">
@@ -5312,10 +5312,10 @@
         <v>284</v>
       </c>
       <c r="B338" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C338" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -5323,10 +5323,10 @@
         <v>284</v>
       </c>
       <c r="B339" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C339" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340">
@@ -5334,10 +5334,10 @@
         <v>284</v>
       </c>
       <c r="B340" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -5345,10 +5345,10 @@
         <v>284</v>
       </c>
       <c r="B341" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C341" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -5356,10 +5356,10 @@
         <v>284</v>
       </c>
       <c r="B342" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -5367,10 +5367,10 @@
         <v>284</v>
       </c>
       <c r="B343" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
@@ -5378,10 +5378,10 @@
         <v>284</v>
       </c>
       <c r="B344" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -5389,10 +5389,10 @@
         <v>284</v>
       </c>
       <c r="B345" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C345" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="346">
@@ -5400,10 +5400,10 @@
         <v>284</v>
       </c>
       <c r="B346" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -5411,18 +5411,18 @@
         <v>284</v>
       </c>
       <c r="B347" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C347" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="B348" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -5430,35 +5430,35 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="B349" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C349" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C351" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="352">
@@ -5466,10 +5466,10 @@
         <v>361</v>
       </c>
       <c r="B352" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C352" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -5477,10 +5477,10 @@
         <v>361</v>
       </c>
       <c r="B353" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C353" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -5488,7 +5488,7 @@
         <v>361</v>
       </c>
       <c r="B354" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         <v>361</v>
       </c>
       <c r="B355" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5510,10 +5510,10 @@
         <v>361</v>
       </c>
       <c r="B356" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="357">
@@ -5521,10 +5521,10 @@
         <v>361</v>
       </c>
       <c r="B357" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>209</v>
       </c>
     </row>
     <row r="358">
@@ -5532,10 +5532,10 @@
         <v>361</v>
       </c>
       <c r="B358" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C358" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359">
@@ -5543,10 +5543,10 @@
         <v>361</v>
       </c>
       <c r="B359" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C359" t="n">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -5554,10 +5554,10 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C360" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -5565,10 +5565,10 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362">
@@ -5576,10 +5576,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363">
@@ -5587,10 +5587,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C363" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -5598,10 +5598,10 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C364" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="365">
@@ -5609,10 +5609,10 @@
         <v>361</v>
       </c>
       <c r="B365" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -5620,10 +5620,10 @@
         <v>361</v>
       </c>
       <c r="B366" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C366" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -5631,10 +5631,10 @@
         <v>361</v>
       </c>
       <c r="B367" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C367" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="368">
@@ -5642,7 +5642,7 @@
         <v>361</v>
       </c>
       <c r="B368" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5653,10 +5653,10 @@
         <v>361</v>
       </c>
       <c r="B369" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C369" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="370">
@@ -5664,7 +5664,7 @@
         <v>361</v>
       </c>
       <c r="B370" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -5675,10 +5675,10 @@
         <v>361</v>
       </c>
       <c r="B371" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C371" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -5686,10 +5686,10 @@
         <v>361</v>
       </c>
       <c r="B372" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>233</v>
       </c>
     </row>
     <row r="373">
@@ -5697,10 +5697,10 @@
         <v>361</v>
       </c>
       <c r="B373" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -5708,10 +5708,10 @@
         <v>361</v>
       </c>
       <c r="B374" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C374" t="n">
-        <v>233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -5719,10 +5719,10 @@
         <v>361</v>
       </c>
       <c r="B375" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376">
@@ -5730,10 +5730,10 @@
         <v>361</v>
       </c>
       <c r="B376" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="377">
@@ -5741,10 +5741,10 @@
         <v>361</v>
       </c>
       <c r="B377" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C377" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -5752,10 +5752,10 @@
         <v>361</v>
       </c>
       <c r="B378" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C378" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="379">
@@ -5763,10 +5763,10 @@
         <v>361</v>
       </c>
       <c r="B379" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -5774,10 +5774,10 @@
         <v>361</v>
       </c>
       <c r="B380" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C380" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381">
@@ -5785,10 +5785,10 @@
         <v>361</v>
       </c>
       <c r="B381" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -5796,10 +5796,10 @@
         <v>361</v>
       </c>
       <c r="B382" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C382" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -5807,10 +5807,10 @@
         <v>361</v>
       </c>
       <c r="B383" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="384">
@@ -5818,10 +5818,10 @@
         <v>361</v>
       </c>
       <c r="B384" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C384" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -5829,10 +5829,10 @@
         <v>361</v>
       </c>
       <c r="B385" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="C385" t="n">
-        <v>79</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="386">
@@ -5840,32 +5840,32 @@
         <v>361</v>
       </c>
       <c r="B386" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C386" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="B387" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="C387" t="n">
-        <v>3535</v>
+        <v>28</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="B388" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C388" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -5873,32 +5873,32 @@
         <v>398</v>
       </c>
       <c r="B389" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C389" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B390" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>542</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -5906,10 +5906,10 @@
         <v>401</v>
       </c>
       <c r="B392" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C392" t="n">
-        <v>542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -5917,10 +5917,10 @@
         <v>401</v>
       </c>
       <c r="B393" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -5928,7 +5928,7 @@
         <v>401</v>
       </c>
       <c r="B394" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -5939,7 +5939,7 @@
         <v>401</v>
       </c>
       <c r="B395" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -5950,7 +5950,7 @@
         <v>401</v>
       </c>
       <c r="B396" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5961,10 +5961,10 @@
         <v>401</v>
       </c>
       <c r="B397" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -5972,10 +5972,10 @@
         <v>401</v>
       </c>
       <c r="B398" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -5983,10 +5983,10 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -5994,10 +5994,10 @@
         <v>401</v>
       </c>
       <c r="B400" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C400" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -6005,7 +6005,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C401" t="n">
         <v>1</v>
@@ -6016,10 +6016,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C402" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -6027,10 +6027,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -6038,7 +6038,7 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -6049,7 +6049,7 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C405" t="n">
         <v>3</v>
@@ -6060,7 +6060,7 @@
         <v>401</v>
       </c>
       <c r="B406" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -6071,31 +6071,9 @@
         <v>401</v>
       </c>
       <c r="B407" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>401</v>
-      </c>
-      <c r="B408" t="s">
-        <v>417</v>
-      </c>
-      <c r="C408" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>401</v>
-      </c>
-      <c r="B409" t="s">
-        <v>418</v>
-      </c>
-      <c r="C409" t="n">
         <v>1</v>
       </c>
     </row>
